--- a/Homework/HW4/Results_Models.xlsx
+++ b/Homework/HW4/Results_Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khan_\Downloads\cs82_advanced_machine_learning_git\Homework\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C535A1-B41C-4971-B10E-941CF2DC5C96}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E40F34D-1E95-4FD2-BFFD-126F3F408A94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25230" windowHeight="11445" xr2:uid="{D9C26B74-EA85-4A86-9E75-7D4CD37BE7C6}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Homework/HW4/Results_Models.xlsx
+++ b/Homework/HW4/Results_Models.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khan_\Downloads\cs82_advanced_machine_learning_git\Homework\HW4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkhan2\OneDrive\Documents\Harvard\CS82 Advanced Machine Learning and Artificial Intelligence\cs82_advanced_machine_learning_git\cs82_advanced_machine_learning\Homework\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E40F34D-1E95-4FD2-BFFD-126F3F408A94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25230" windowHeight="11445" xr2:uid="{D9C26B74-EA85-4A86-9E75-7D4CD37BE7C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25230" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>AUC</t>
   </si>
@@ -59,25 +58,28 @@
     <t>STACK (LDA):</t>
   </si>
   <si>
-    <t>LDA, XGBOOST, BIN</t>
-  </si>
-  <si>
     <t>XGBoost, NaiveBayes, LDA</t>
   </si>
   <si>
-    <t>Logistic Regression (PCA)</t>
-  </si>
-  <si>
     <t>XGBOOST, Logistic, Naïve Bayes, LDA</t>
   </si>
   <si>
     <t>SVM</t>
   </si>
+  <si>
+    <t xml:space="preserve">Logistic Regression </t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>LDA, XGBOOST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,11 +427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39696C09-0FED-4461-8E61-B8A380808F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +444,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,33 +465,33 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="C2" s="1">
-        <v>0.92100000000000004</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>0.44</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.60799999999999998</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="C3" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>0.66</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="E3" s="1">
-        <v>0.75700000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -494,16 +499,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.49</v>
+        <v>0.67</v>
       </c>
       <c r="C4" s="1">
-        <v>0.72</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>0.30199999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="E4" s="1">
-        <v>0.443</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -511,16 +516,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>0.7</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="C5" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>0.92200000000000004</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="E5" s="1">
-        <v>0.89400000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -528,33 +533,33 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>0.76200000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="C6" s="1">
-        <v>0.70499999999999996</v>
+        <v>0.748</v>
       </c>
       <c r="D6" s="1">
-        <v>0.69799999999999995</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="E6" s="1">
-        <v>0.79500000000000004</v>
+        <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>0.67700000000000005</v>
       </c>
       <c r="C7" s="1">
-        <v>0.43</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>0.81699999999999995</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.84799999999999998</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,24 +569,24 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="C10" s="1">
-        <v>0.59</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>0.78</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="E10" s="1">
-        <v>0.84</v>
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.77500000000000002</v>
@@ -598,7 +603,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.77</v>
@@ -616,4 +621,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<DataModel Name="Version"> 1.1 </DataModel>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<DataModel Name="ServerUrl">  </DataModel>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{418CA8DF-A584-40F3-B5CF-4D7E1314E628}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3750B9E-A963-4C1F-AE27-0D53CD979944}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>